--- a/data/correction/test.xlsx
+++ b/data/correction/test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\IO Aero\io-avstats-db\data\correction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\IO-Aero\io-avstats\data\correction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCC4A63-9D9A-47D2-920A-FCED1A1C15CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB88A0E-74B2-4235-A9C7-9622106A5851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="0" windowWidth="25780" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -458,13 +458,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -543,7 +543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -554,7 +554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -582,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -624,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -638,7 +638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -652,7 +652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -680,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -708,7 +708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -719,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -733,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -744,7 +744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -758,7 +758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
